--- a/CMA framework/Excel files/Covariances.xlsx
+++ b/CMA framework/Excel files/Covariances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gigan\OneDrive\Desktop\NYU\Fall 2025\Capstone\CMA framework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC018F-06FF-42E7-A90B-45D5C5F9DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2C3EB1-9AC0-41C2-93DF-D66C7F2D1D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="866" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="866" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeseries" sheetId="1" r:id="rId1"/>
@@ -2986,10 +2986,10 @@
   <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L121" sqref="L121"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12819,8 +12819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1CCD8F-AFA4-46D6-8169-BB20A2905515}">
   <dimension ref="B2:BI88"/>
   <sheetViews>
-    <sheetView topLeftCell="O59" zoomScale="36" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AO68" sqref="AO68:AP88"/>
+    <sheetView zoomScale="36" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23168,13 +23168,13 @@
         <f>'JPM Corr'!AQ68*VLOOKUP('JPM Cov matrix'!$B3,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>7.9373455880417149E-4</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="16" t="e">
         <f>'JPM Corr'!AR68*VLOOKUP('JPM Cov matrix'!$B3,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W3" s="16" t="e">
         <f>'JPM Corr'!AS68*VLOOKUP('JPM Cov matrix'!$B3,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
@@ -23257,13 +23257,13 @@
         <f>'JPM Corr'!AQ69*VLOOKUP('JPM Cov matrix'!$B4,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.75336443413791E-3</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="16" t="e">
         <f>'JPM Corr'!AR69*VLOOKUP('JPM Cov matrix'!$B4,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W4" s="16" t="e">
         <f>'JPM Corr'!AS69*VLOOKUP('JPM Cov matrix'!$B4,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
@@ -23346,13 +23346,13 @@
         <f>'JPM Corr'!AQ70*VLOOKUP('JPM Cov matrix'!$B5,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.8140027670527029E-3</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="16" t="e">
         <f>'JPM Corr'!AR70*VLOOKUP('JPM Cov matrix'!$B5,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W5" s="16" t="e">
         <f>'JPM Corr'!AS70*VLOOKUP('JPM Cov matrix'!$B5,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
@@ -23435,13 +23435,13 @@
         <f>'JPM Corr'!AQ71*VLOOKUP('JPM Cov matrix'!$B6,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.3220036874075729E-3</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="16" t="e">
         <f>'JPM Corr'!AR71*VLOOKUP('JPM Cov matrix'!$B6,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W6" s="16" t="e">
         <f>'JPM Corr'!AS71*VLOOKUP('JPM Cov matrix'!$B6,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
@@ -23524,13 +23524,13 @@
         <f>'JPM Corr'!AQ72*VLOOKUP('JPM Cov matrix'!$B7,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.2864805634355617E-3</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="16" t="e">
         <f>'JPM Corr'!AR72*VLOOKUP('JPM Cov matrix'!$B7,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W7" s="16" t="e">
         <f>'JPM Corr'!AS72*VLOOKUP('JPM Cov matrix'!$B7,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
@@ -23613,13 +23613,13 @@
         <f>'JPM Corr'!AQ73*VLOOKUP('JPM Cov matrix'!$B8,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.4692340181926119E-3</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="16" t="e">
         <f>'JPM Corr'!AR73*VLOOKUP('JPM Cov matrix'!$B8,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W8" s="16" t="e">
         <f>'JPM Corr'!AS73*VLOOKUP('JPM Cov matrix'!$B8,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
@@ -23702,13 +23702,13 @@
         <f>'JPM Corr'!AQ74*VLOOKUP('JPM Cov matrix'!$B9,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.6856878269722441E-3</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="16" t="e">
         <f>'JPM Corr'!AR74*VLOOKUP('JPM Cov matrix'!$B9,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W9" s="16" t="e">
         <f>'JPM Corr'!AS74*VLOOKUP('JPM Cov matrix'!$B9,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
@@ -23791,13 +23791,13 @@
         <f>'JPM Corr'!AQ75*VLOOKUP('JPM Cov matrix'!$B10,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.9283208874461501E-3</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="16" t="e">
         <f>'JPM Corr'!AR75*VLOOKUP('JPM Cov matrix'!$B10,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W10" s="16" t="e">
         <f>'JPM Corr'!AS75*VLOOKUP('JPM Cov matrix'!$B10,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.35">
@@ -23880,13 +23880,13 @@
         <f>'JPM Corr'!AQ76*VLOOKUP('JPM Cov matrix'!$B11,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>5.3375133589760142E-3</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="16" t="e">
         <f>'JPM Corr'!AR76*VLOOKUP('JPM Cov matrix'!$B11,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W11" s="16" t="e">
         <f>'JPM Corr'!AS76*VLOOKUP('JPM Cov matrix'!$B11,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
@@ -23969,13 +23969,13 @@
         <f>'JPM Corr'!AQ77*VLOOKUP('JPM Cov matrix'!$B12,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>4.9028387062294183E-3</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="16" t="e">
         <f>'JPM Corr'!AR77*VLOOKUP('JPM Cov matrix'!$B12,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W12" s="16" t="e">
         <f>'JPM Corr'!AS77*VLOOKUP('JPM Cov matrix'!$B12,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
@@ -24058,13 +24058,13 @@
         <f>'JPM Corr'!AQ78*VLOOKUP('JPM Cov matrix'!$B13,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>8.1884529088370234E-4</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="16" t="e">
         <f>'JPM Corr'!AR78*VLOOKUP('JPM Cov matrix'!$B13,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W13" s="16" t="e">
         <f>'JPM Corr'!AS78*VLOOKUP('JPM Cov matrix'!$B13,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
@@ -24147,13 +24147,13 @@
         <f>'JPM Corr'!AQ79*VLOOKUP('JPM Cov matrix'!$B14,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.9764972661726965E-3</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="16" t="e">
         <f>'JPM Corr'!AR79*VLOOKUP('JPM Cov matrix'!$B14,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="16" t="e">
         <f>'JPM Corr'!AS79*VLOOKUP('JPM Cov matrix'!$B14,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.35">
@@ -24236,13 +24236,13 @@
         <f>'JPM Corr'!AQ80*VLOOKUP('JPM Cov matrix'!$B15,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>2.1013251074619202E-3</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="16" t="e">
         <f>'JPM Corr'!AR80*VLOOKUP('JPM Cov matrix'!$B15,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="16" t="e">
         <f>'JPM Corr'!AS80*VLOOKUP('JPM Cov matrix'!$B15,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
@@ -24325,13 +24325,13 @@
         <f>'JPM Corr'!AQ81*VLOOKUP('JPM Cov matrix'!$B16,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>2.396730681286389E-3</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="16" t="e">
         <f>'JPM Corr'!AR81*VLOOKUP('JPM Cov matrix'!$B16,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="16" t="e">
         <f>'JPM Corr'!AS81*VLOOKUP('JPM Cov matrix'!$B16,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
@@ -24414,13 +24414,13 @@
         <f>'JPM Corr'!AQ82*VLOOKUP('JPM Cov matrix'!$B17,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.461610745697364E-3</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="16" t="e">
         <f>'JPM Corr'!AR82*VLOOKUP('JPM Cov matrix'!$B17,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W17" s="16" t="e">
         <f>'JPM Corr'!AS82*VLOOKUP('JPM Cov matrix'!$B17,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.35">
@@ -24503,13 +24503,13 @@
         <f>'JPM Corr'!AQ83*VLOOKUP('JPM Cov matrix'!$B18,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>1.627713540092978E-3</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="16" t="e">
         <f>'JPM Corr'!AR83*VLOOKUP('JPM Cov matrix'!$B18,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W18" s="16" t="e">
         <f>'JPM Corr'!AS83*VLOOKUP('JPM Cov matrix'!$B18,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
@@ -24592,13 +24592,13 @@
         <f>'JPM Corr'!AQ84*VLOOKUP('JPM Cov matrix'!$B19,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>3.9033286635228172E-3</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="16" t="e">
         <f>'JPM Corr'!AR84*VLOOKUP('JPM Cov matrix'!$B19,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W19" s="16" t="e">
         <f>'JPM Corr'!AS84*VLOOKUP('JPM Cov matrix'!$B19,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
@@ -24681,13 +24681,13 @@
         <f>'JPM Corr'!AQ85*VLOOKUP('JPM Cov matrix'!$B20,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>2.5895882834345309E-3</v>
       </c>
-      <c r="V20" s="16">
+      <c r="V20" s="16" t="e">
         <f>'JPM Corr'!AR85*VLOOKUP('JPM Cov matrix'!$B20,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W20" s="16" t="e">
         <f>'JPM Corr'!AS85*VLOOKUP('JPM Cov matrix'!$B20,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.35">
@@ -24770,191 +24770,191 @@
         <f>'JPM Corr'!AQ86*VLOOKUP('JPM Cov matrix'!$B21,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
         <v>7.3545902309661943E-3</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="16" t="e">
         <f>'JPM Corr'!AR86*VLOOKUP('JPM Cov matrix'!$B21,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W21" s="16" t="e">
         <f>'JPM Corr'!AS86*VLOOKUP('JPM Cov matrix'!$B21,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="16" t="e">
         <f>'JPM Corr'!Y87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!C$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="16" t="e">
         <f>'JPM Corr'!Z87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!D$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="16" t="e">
         <f>'JPM Corr'!AA87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!E$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="16" t="e">
         <f>'JPM Corr'!AB87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!F$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="16" t="e">
         <f>'JPM Corr'!AC87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!G$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="16" t="e">
         <f>'JPM Corr'!AD87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!H$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="16" t="e">
         <f>'JPM Corr'!AE87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!I$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="16" t="e">
         <f>'JPM Corr'!AF87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!J$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="16" t="e">
         <f>'JPM Corr'!AG87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!K$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="16" t="e">
         <f>'JPM Corr'!AH87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!L$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="16" t="e">
         <f>'JPM Corr'!AI87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!M$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="16" t="e">
         <f>'JPM Corr'!AJ87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!N$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="O22" s="16" t="e">
         <f>'JPM Corr'!AK87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!O$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="P22" s="16" t="e">
         <f>'JPM Corr'!AL87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!P$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="Q22" s="16" t="e">
         <f>'JPM Corr'!AM87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!Q$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="R22" s="16" t="e">
         <f>'JPM Corr'!AN87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!R$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="S22" s="16" t="e">
         <f>'JPM Corr'!AO87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!S$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="T22" s="16" t="e">
         <f>'JPM Corr'!AP87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!T$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="U22" s="16" t="e">
         <f>'JPM Corr'!AQ87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="V22" s="16" t="e">
         <f>'JPM Corr'!AR87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W22" s="16" t="e">
         <f>'JPM Corr'!AS87*VLOOKUP('JPM Cov matrix'!$B22,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="16" t="e">
         <f>'JPM Corr'!Y88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!C$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="16" t="e">
         <f>'JPM Corr'!Z88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!D$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="16" t="e">
         <f>'JPM Corr'!AA88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!E$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="16" t="e">
         <f>'JPM Corr'!AB88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!F$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="16" t="e">
         <f>'JPM Corr'!AC88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!G$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="16" t="e">
         <f>'JPM Corr'!AD88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!H$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="16" t="e">
         <f>'JPM Corr'!AE88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!I$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="16" t="e">
         <f>'JPM Corr'!AF88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!J$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="16" t="e">
         <f>'JPM Corr'!AG88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!K$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="16" t="e">
         <f>'JPM Corr'!AH88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!L$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="16" t="e">
         <f>'JPM Corr'!AI88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!M$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="N23" s="16" t="e">
         <f>'JPM Corr'!AJ88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!N$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="O23" s="16" t="e">
         <f>'JPM Corr'!AK88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!O$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="P23" s="16" t="e">
         <f>'JPM Corr'!AL88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!P$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="Q23" s="16" t="e">
         <f>'JPM Corr'!AM88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!Q$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="R23" s="16" t="e">
         <f>'JPM Corr'!AN88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!R$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="S23" s="16" t="e">
         <f>'JPM Corr'!AO88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!S$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="T23" s="16" t="e">
         <f>'JPM Corr'!AP88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!T$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="U23" s="16" t="e">
         <f>'JPM Corr'!AQ88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!U$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="V23" s="16" t="e">
         <f>'JPM Corr'!AR88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!V$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="W23" s="16" t="e">
         <f>'JPM Corr'!AS88*VLOOKUP('JPM Cov matrix'!$B23,'[1]Asset Universe'!$C$3:$O$23,13,0)*VLOOKUP('JPM Cov matrix'!W$2,'[1]Asset Universe'!$C$3:$O$23,13,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -24978,10 +24978,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931399E5-AD95-4591-9453-CC0211FDF36A}">
   <dimension ref="A1:Y327"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H19" sqref="H19"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41337,7 +41337,7 @@
     <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H19" sqref="H19"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61676,7 +61676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2CB438-9478-452D-9151-0AE7FAFB7C70}">
   <dimension ref="B2:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:W23"/>
     </sheetView>
   </sheetViews>
